--- a/STM32F051C8T6/MIS PROYECTOS/PORTABLE DIGITAL SOURCE V1/DESIGN POWER.xlsx
+++ b/STM32F051C8T6/MIS PROYECTOS/PORTABLE DIGITAL SOURCE V1/DESIGN POWER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIOVANNY_TODO\SKETCHS\STM32\STM32F051C8T6\MIS PROYECTOS\PORTABLE DIGITAL SOURCE V1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1E0EBA-405C-4566-AE37-9DFFE4772268}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFAACD8-9266-4EE7-8617-48089E2E34A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{97884494-F9FC-454E-B7F0-C1DF6E6FC067}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
   <si>
     <t>Vref</t>
   </si>
@@ -54,12 +54,6 @@
     <t>Vdac inicio(1/3)</t>
   </si>
   <si>
-    <t>XL6009</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
     <t>Vout_high</t>
   </si>
   <si>
@@ -82,15 +76,6 @@
   </si>
   <si>
     <t>encoder</t>
-  </si>
-  <si>
-    <t>Vdac</t>
-  </si>
-  <si>
-    <t>Encoder</t>
-  </si>
-  <si>
-    <t>VoutMath</t>
   </si>
   <si>
     <t>Vdac inicio(1/4.13)</t>
@@ -117,12 +102,6 @@
     <t xml:space="preserve"> Formula para corregier la salida o VoutMath</t>
   </si>
   <si>
-    <t>VouthMath</t>
-  </si>
-  <si>
-    <t>VouthMathEND</t>
-  </si>
-  <si>
     <t>DAC REAL</t>
   </si>
   <si>
@@ -133,6 +112,9 @@
   </si>
   <si>
     <t>CORREGIR</t>
+  </si>
+  <si>
+    <t>AQUIIIII EDITANDO</t>
   </si>
 </sst>
 </file>
@@ -162,7 +144,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,18 +160,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,25 +246,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1805,6 +1775,524 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-PE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$J$188:$J$218</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>3740</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3678</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3617</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3495</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3253</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3133</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3015</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2915</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2804</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2685</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2564</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2447</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2327</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2206</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2089</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1967</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1847</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1726</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1606</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1483</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1362</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1238</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1121</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>883</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>766</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>647</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0">
+                  <c:v>285</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$K$188:$K$218</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>117.27607361963192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>116.45398773006173</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>114.63190184049063</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110.98773006135025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>105.34355828220896</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>101.69938650306767</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96.055214723926383</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88.411042944785095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62.766871165644716</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48.122699386503427</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41.478527607362139</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36.834355828220851</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28.190184049079562</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.546012269938728</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.90184049079744</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.2576687116566063</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.6134969325153179</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.0674846625970531E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-4.6748466257668042</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-10.319018404908093</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-12.963190184049154</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-17.607361963190215</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-19.251533742331503</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-27.895705521472792</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-33.539877300613966</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-41.184049079754686</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-49.828220858895861</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-56.472392638037036</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-64.116564417178324</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-68.760736196319556</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-71.404907975460191</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E86F-45D2-BF3F-357C6AFCBA0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="904939984"/>
+        <c:axId val="757734416"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="904939984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="757734416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="757734416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="904939984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-PE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1925,6 +2413,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2958,6 +3486,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3975,6 +5019,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Gráfico 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0C266F4-5A30-4BA7-9FC7-10F2FD554930}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4291,10 +5371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D153B7-22F3-48BB-9E72-85FF6508B366}">
-  <dimension ref="B6:S203"/>
+  <dimension ref="B6:T220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="J158" sqref="J158:K158"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="Q213" sqref="Q213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4377,172 +5457,151 @@
       <c r="K15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="5">
         <f>L9/(L7-L9/(L14+L8))</f>
         <v>131290.32258064512</v>
       </c>
     </row>
-    <row r="17" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="11:20" x14ac:dyDescent="0.25">
       <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="11:19" x14ac:dyDescent="0.25">
-      <c r="R18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="S18" s="5">
-        <v>2430.5</v>
-      </c>
-    </row>
-    <row r="19" spans="11:19" x14ac:dyDescent="0.25">
-      <c r="R19" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="S19" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+    </row>
+    <row r="18" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+    </row>
+    <row r="19" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+    </row>
+    <row r="20" spans="11:20" x14ac:dyDescent="0.25">
       <c r="K20" s="4" t="s">
         <v>2</v>
       </c>
       <c r="L20" s="4">
-        <v>11.25</v>
-      </c>
-      <c r="N20" t="s">
-        <v>9</v>
-      </c>
-      <c r="R20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="S20" s="5">
-        <f>S18*3.3/4096</f>
-        <v>1.9581665039062499</v>
-      </c>
-    </row>
-    <row r="21" spans="11:19" x14ac:dyDescent="0.25">
+        <v>29.25</v>
+      </c>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+    </row>
+    <row r="21" spans="11:20" x14ac:dyDescent="0.25">
       <c r="K21" s="4" t="s">
         <v>3</v>
       </c>
       <c r="L21" s="4">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="N21" t="s">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>41000</v>
-      </c>
-      <c r="R21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="S21" s="5">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="22" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+    </row>
+    <row r="22" spans="11:20" x14ac:dyDescent="0.25">
       <c r="K22" s="4" t="s">
         <v>4</v>
       </c>
       <c r="L22" s="4">
         <v>15000</v>
       </c>
-      <c r="N22" t="s">
-        <v>10</v>
-      </c>
-      <c r="O22">
-        <v>56250</v>
-      </c>
-      <c r="R22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="S22" s="5">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="23" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+    </row>
+    <row r="23" spans="11:20" x14ac:dyDescent="0.25">
       <c r="K23" s="4" t="s">
         <v>0</v>
       </c>
       <c r="L23" s="4">
         <v>1.25</v>
       </c>
-      <c r="N23" t="s">
-        <v>2</v>
-      </c>
-      <c r="O23">
-        <f>1.25*(1+O21/O22)</f>
-        <v>2.161111111111111</v>
-      </c>
-      <c r="R23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S23" s="5">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="24" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+    </row>
+    <row r="24" spans="11:20" x14ac:dyDescent="0.25">
       <c r="K24" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L24" s="4">
         <f>L23/4.7334</f>
         <v>0.26408078759454096</v>
       </c>
-      <c r="R24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="5">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+    </row>
+    <row r="25" spans="11:20" x14ac:dyDescent="0.25">
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
-      <c r="R25" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="S25" s="7">
-        <f>(S19-S21)/((S21/S23)+((S21-S20)/S22))</f>
-        <v>41.202694482618774</v>
-      </c>
-    </row>
-    <row r="26" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+    </row>
+    <row r="26" spans="11:20" x14ac:dyDescent="0.25">
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
-    </row>
-    <row r="27" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+    </row>
+    <row r="27" spans="11:20" x14ac:dyDescent="0.25">
       <c r="K27" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L27" s="9">
+      <c r="L27" s="6">
         <f>(L20-L23)/L21</f>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="28" spans="11:19" x14ac:dyDescent="0.25">
+        <v>560000</v>
+      </c>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+    </row>
+    <row r="28" spans="11:20" x14ac:dyDescent="0.25">
       <c r="K28" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L28" s="9">
+      <c r="L28" s="6">
         <f>L22*(L23-L24)/L24</f>
         <v>56000.999999999993</v>
       </c>
-      <c r="R28" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S28">
-        <f>S21+((S21/S23)+((S21-S20)/S22))*S24</f>
-        <v>6.6683349609375009</v>
-      </c>
-    </row>
-    <row r="29" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+    </row>
+    <row r="29" spans="11:20" x14ac:dyDescent="0.25">
       <c r="K29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L29" s="9">
+      <c r="L29" s="6">
         <f>L23/(L21-L23/(L28+L22))</f>
         <v>38586.66115954001</v>
       </c>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+    </row>
+    <row r="30" spans="11:20" x14ac:dyDescent="0.25">
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
     </row>
     <row r="41" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I41" t="s">
@@ -4574,13 +5633,13 @@
     </row>
     <row r="43" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I43" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J43">
         <v>5.66E-5</v>
       </c>
       <c r="L43" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M43">
         <v>5</v>
@@ -4588,13 +5647,13 @@
     </row>
     <row r="44" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I44" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J44">
         <v>4.3399999999999998E-5</v>
       </c>
       <c r="L44" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M44">
         <v>5</v>
@@ -4602,14 +5661,14 @@
     </row>
     <row r="46" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I46" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J46">
         <f>J43*J42+J41</f>
         <v>5.4988280000000005</v>
       </c>
       <c r="L46" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M46">
         <f>(M43-M41)/M42</f>
@@ -4618,14 +5677,14 @@
     </row>
     <row r="47" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I47" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J47">
         <f>J44*J42+J41</f>
         <v>4.5011720000000004</v>
       </c>
       <c r="L47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M47">
         <f>(M44-M41)/M42</f>
@@ -4634,26 +5693,26 @@
     </row>
     <row r="63" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E63" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E65" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F68" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G68" t="s">
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="3:8" x14ac:dyDescent="0.25">
@@ -5198,32 +6257,32 @@
     </row>
     <row r="106" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E106" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E108" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F108" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E109" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F109" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G109" t="s">
-        <v>25</v>
-      </c>
-      <c r="I109" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J109" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="I109" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J109" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="5:10" x14ac:dyDescent="0.25">
@@ -5233,12 +6292,12 @@
       <c r="F110">
         <v>0</v>
       </c>
-      <c r="G110" s="16">
+      <c r="G110" s="13">
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>1.3</v>
       </c>
-      <c r="I110" s="12"/>
-      <c r="J110" s="17"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="14"/>
     </row>
     <row r="111" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E111">
@@ -5251,10 +6310,10 @@
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>1.3</v>
       </c>
-      <c r="I111" s="14">
+      <c r="I111" s="11">
         <v>1.5</v>
       </c>
-      <c r="J111" s="15">
+      <c r="J111" s="12">
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>1.3</v>
       </c>
@@ -5270,10 +6329,10 @@
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>1.3</v>
       </c>
-      <c r="I112" s="12">
+      <c r="I112" s="9">
         <v>2</v>
       </c>
-      <c r="J112" s="13">
+      <c r="J112" s="10">
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>1.3</v>
       </c>
@@ -5290,11 +6349,11 @@
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>1.3</v>
       </c>
-      <c r="I113" s="14">
+      <c r="I113" s="11">
         <f>I112+1</f>
         <v>3</v>
       </c>
-      <c r="J113" s="15">
+      <c r="J113" s="12">
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>1.3</v>
       </c>
@@ -5311,11 +6370,11 @@
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>1.2000000000000002</v>
       </c>
-      <c r="I114" s="12">
+      <c r="I114" s="9">
         <f t="shared" ref="I114:I139" si="3">I113+1</f>
         <v>4</v>
       </c>
-      <c r="J114" s="13">
+      <c r="J114" s="10">
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>1.2000000000000002</v>
       </c>
@@ -5332,11 +6391,11 @@
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>1.2000000000000002</v>
       </c>
-      <c r="I115" s="14">
+      <c r="I115" s="11">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="J115" s="15">
+      <c r="J115" s="12">
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>1.2000000000000002</v>
       </c>
@@ -5353,11 +6412,11 @@
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>1.0999999999999996</v>
       </c>
-      <c r="I116" s="12">
+      <c r="I116" s="9">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="J116" s="13">
+      <c r="J116" s="10">
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>1.0999999999999996</v>
       </c>
@@ -5374,11 +6433,11 @@
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>1.0999999999999996</v>
       </c>
-      <c r="I117" s="14">
+      <c r="I117" s="11">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="J117" s="15">
+      <c r="J117" s="12">
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>1.0999999999999996</v>
       </c>
@@ -5395,11 +6454,11 @@
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>1</v>
       </c>
-      <c r="I118" s="12">
+      <c r="I118" s="9">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="J118" s="13">
+      <c r="J118" s="10">
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>1</v>
       </c>
@@ -5416,11 +6475,11 @@
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>0.90000000000000036</v>
       </c>
-      <c r="I119" s="14">
+      <c r="I119" s="11">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="J119" s="15">
+      <c r="J119" s="12">
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>0.90000000000000036</v>
       </c>
@@ -5437,11 +6496,11 @@
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>0.69999999999999929</v>
       </c>
-      <c r="I120" s="12">
+      <c r="I120" s="9">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="J120" s="13">
+      <c r="J120" s="10">
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>0.69999999999999929</v>
       </c>
@@ -5458,11 +6517,11 @@
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>0.69999999999999929</v>
       </c>
-      <c r="I121" s="14">
+      <c r="I121" s="11">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="J121" s="15">
+      <c r="J121" s="12">
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>0.69999999999999929</v>
       </c>
@@ -5479,11 +6538,11 @@
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>0.69999999999999929</v>
       </c>
-      <c r="I122" s="12">
+      <c r="I122" s="9">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="J122" s="13">
+      <c r="J122" s="10">
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>0.69999999999999929</v>
       </c>
@@ -5500,11 +6559,11 @@
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>0.59999999999999964</v>
       </c>
-      <c r="I123" s="14">
+      <c r="I123" s="11">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="J123" s="15">
+      <c r="J123" s="12">
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>0.59999999999999964</v>
       </c>
@@ -5521,11 +6580,11 @@
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>0.59999999999999964</v>
       </c>
-      <c r="I124" s="12">
+      <c r="I124" s="9">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="J124" s="13">
+      <c r="J124" s="10">
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>0.59999999999999964</v>
       </c>
@@ -5542,11 +6601,11 @@
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>0.5</v>
       </c>
-      <c r="I125" s="14">
+      <c r="I125" s="11">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="J125" s="15">
+      <c r="J125" s="12">
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>0.5</v>
       </c>
@@ -5563,11 +6622,11 @@
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>0.5</v>
       </c>
-      <c r="I126" s="12">
+      <c r="I126" s="9">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="J126" s="13">
+      <c r="J126" s="10">
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>0.5</v>
       </c>
@@ -5584,11 +6643,11 @@
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>0.39999999999999858</v>
       </c>
-      <c r="I127" s="14">
+      <c r="I127" s="11">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="J127" s="15">
+      <c r="J127" s="12">
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>0.39999999999999858</v>
       </c>
@@ -5605,11 +6664,11 @@
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>0.39999999999999858</v>
       </c>
-      <c r="I128" s="12">
+      <c r="I128" s="9">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="J128" s="13">
+      <c r="J128" s="10">
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>0.39999999999999858</v>
       </c>
@@ -5626,11 +6685,11 @@
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>0.30000000000000071</v>
       </c>
-      <c r="I129" s="14">
+      <c r="I129" s="11">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="J129" s="15">
+      <c r="J129" s="12">
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>0.30000000000000071</v>
       </c>
@@ -5647,16 +6706,16 @@
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>0.30000000000000071</v>
       </c>
-      <c r="I130" s="12">
+      <c r="I130" s="9">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="J130" s="13">
+      <c r="J130" s="10">
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>0.30000000000000071</v>
       </c>
       <c r="L130" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M130">
         <v>1.5</v>
@@ -5678,11 +6737,11 @@
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>0.19999999999999929</v>
       </c>
-      <c r="I131" s="14">
+      <c r="I131" s="11">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="J131" s="15">
+      <c r="J131" s="12">
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>0.19999999999999929</v>
       </c>
@@ -5699,11 +6758,11 @@
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>0.19999999999999929</v>
       </c>
-      <c r="I132" s="12">
+      <c r="I132" s="9">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="J132" s="13">
+      <c r="J132" s="10">
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>0.19999999999999929</v>
       </c>
@@ -5720,11 +6779,11 @@
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>0.14999999999999858</v>
       </c>
-      <c r="I133" s="14">
+      <c r="I133" s="11">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="J133" s="15">
+      <c r="J133" s="12">
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>0.14999999999999858</v>
       </c>
@@ -5741,11 +6800,11 @@
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>0.14999999999999858</v>
       </c>
-      <c r="I134" s="12">
+      <c r="I134" s="9">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="J134" s="13">
+      <c r="J134" s="10">
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>0.14999999999999858</v>
       </c>
@@ -5762,11 +6821,11 @@
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>0.10000000000000142</v>
       </c>
-      <c r="I135" s="14">
+      <c r="I135" s="11">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="J135" s="15">
+      <c r="J135" s="12">
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>0.10000000000000142</v>
       </c>
@@ -5783,11 +6842,11 @@
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>0.10000000000000142</v>
       </c>
-      <c r="I136" s="12">
+      <c r="I136" s="9">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="J136" s="13">
+      <c r="J136" s="10">
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>0.10000000000000142</v>
       </c>
@@ -5804,11 +6863,11 @@
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>0</v>
       </c>
-      <c r="I137" s="14">
+      <c r="I137" s="11">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="J137" s="15">
+      <c r="J137" s="12">
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>0</v>
       </c>
@@ -5825,11 +6884,11 @@
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>0</v>
       </c>
-      <c r="I138" s="12">
+      <c r="I138" s="9">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="J138" s="13">
+      <c r="J138" s="10">
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>0</v>
       </c>
@@ -5846,11 +6905,11 @@
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>0</v>
       </c>
-      <c r="I139" s="14">
+      <c r="I139" s="11">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="J139" s="15">
+      <c r="J139" s="12">
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>0</v>
       </c>
@@ -5867,556 +6926,556 @@
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>0</v>
       </c>
-      <c r="I140" s="12">
+      <c r="I140" s="9">
         <f>I139+1</f>
         <v>30</v>
       </c>
-      <c r="J140" s="13">
+      <c r="J140" s="10">
         <f>Tabla1[[#This Row],[VOUTMATH]]-Tabla1[[#This Row],[VOLTAGE]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B145" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C145" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D145" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E145" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F145" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I145" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J145" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K145" s="10" t="s">
-        <v>35</v>
+      <c r="B145" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F145" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I145" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J145" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K145" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="146" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B146" s="12"/>
-      <c r="C146" s="22">
+      <c r="B146" s="9"/>
+      <c r="C146" s="18">
         <f>D146*4096/3.26</f>
         <v>3819.5828220858898</v>
       </c>
-      <c r="D146" s="12">
+      <c r="D146" s="9">
         <f>3.17-E146*0.1</f>
         <v>3.04</v>
       </c>
-      <c r="E146" s="12">
+      <c r="E146" s="9">
         <v>1.3</v>
       </c>
-      <c r="F146" s="19">
+      <c r="F146" s="16">
         <v>0</v>
       </c>
-      <c r="I146" s="22">
+      <c r="I146" s="18">
         <f>D146*4096/3.26</f>
         <v>3819.5828220858898</v>
       </c>
-      <c r="J146" s="12">
+      <c r="J146" s="9">
         <v>3656</v>
       </c>
-      <c r="K146" s="22">
+      <c r="K146" s="18">
         <f>I146-J146</f>
         <v>163.5828220858898</v>
       </c>
     </row>
     <row r="147" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B147" s="14"/>
-      <c r="C147" s="22">
+      <c r="B147" s="11"/>
+      <c r="C147" s="18">
         <f t="shared" ref="C147:C176" si="4">D147*4096/3.26</f>
         <v>3794.4539877300617</v>
       </c>
-      <c r="D147" s="12">
+      <c r="D147" s="9">
         <f t="shared" ref="D147:D176" si="5">3.17-E147*0.1</f>
         <v>3.02</v>
       </c>
-      <c r="E147" s="14">
+      <c r="E147" s="11">
         <v>1.5</v>
       </c>
-      <c r="F147" s="20">
+      <c r="F147" s="17">
         <v>0.2</v>
       </c>
-      <c r="I147" s="22">
+      <c r="I147" s="18">
         <f t="shared" ref="I147:I176" si="6">D147*4096/3.26</f>
         <v>3794.4539877300617</v>
       </c>
-      <c r="J147" s="14">
+      <c r="J147" s="11">
         <v>3631</v>
       </c>
-      <c r="K147" s="22">
+      <c r="K147" s="18">
         <f t="shared" ref="K147:K176" si="7">I147-J147</f>
         <v>163.45398773006173</v>
       </c>
     </row>
     <row r="148" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B148" s="12"/>
-      <c r="C148" s="22">
+      <c r="B148" s="9"/>
+      <c r="C148" s="18">
         <f t="shared" si="4"/>
         <v>3731.6319018404906</v>
       </c>
-      <c r="D148" s="12">
+      <c r="D148" s="9">
         <f t="shared" si="5"/>
         <v>2.9699999999999998</v>
       </c>
-      <c r="E148" s="12">
+      <c r="E148" s="9">
         <v>2</v>
       </c>
-      <c r="F148" s="19">
+      <c r="F148" s="16">
         <v>0.7</v>
       </c>
-      <c r="I148" s="22">
+      <c r="I148" s="18">
         <f t="shared" si="6"/>
         <v>3731.6319018404906</v>
       </c>
-      <c r="J148" s="12">
+      <c r="J148" s="9">
         <v>3568</v>
       </c>
-      <c r="K148" s="22">
+      <c r="K148" s="18">
         <f t="shared" si="7"/>
         <v>163.63190184049063</v>
       </c>
     </row>
     <row r="149" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B149" s="14"/>
-      <c r="C149" s="22">
+      <c r="B149" s="11"/>
+      <c r="C149" s="18">
         <f t="shared" si="4"/>
         <v>3605.9877300613502</v>
       </c>
-      <c r="D149" s="12">
+      <c r="D149" s="9">
         <f t="shared" si="5"/>
         <v>2.87</v>
       </c>
-      <c r="E149" s="14">
+      <c r="E149" s="11">
         <f>E148+1</f>
         <v>3</v>
       </c>
-      <c r="F149" s="20">
+      <c r="F149" s="17">
         <v>1.7</v>
       </c>
-      <c r="I149" s="22">
+      <c r="I149" s="18">
         <f t="shared" si="6"/>
         <v>3605.9877300613502</v>
       </c>
-      <c r="J149" s="14">
+      <c r="J149" s="11">
         <v>3443</v>
       </c>
-      <c r="K149" s="22">
+      <c r="K149" s="18">
         <f t="shared" si="7"/>
         <v>162.98773006135025</v>
       </c>
     </row>
     <row r="150" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B150" s="12"/>
-      <c r="C150" s="22">
+      <c r="B150" s="9"/>
+      <c r="C150" s="18">
         <f t="shared" si="4"/>
         <v>3480.343558282209</v>
       </c>
-      <c r="D150" s="12">
+      <c r="D150" s="9">
         <f t="shared" si="5"/>
         <v>2.77</v>
       </c>
-      <c r="E150" s="12">
+      <c r="E150" s="9">
         <f t="shared" ref="E150:E175" si="8">E149+1</f>
         <v>4</v>
       </c>
-      <c r="F150" s="19">
+      <c r="F150" s="16">
         <v>2.8</v>
       </c>
-      <c r="I150" s="22">
+      <c r="I150" s="18">
         <f t="shared" si="6"/>
         <v>3480.343558282209</v>
       </c>
-      <c r="J150" s="12">
+      <c r="J150" s="9">
         <v>3330</v>
       </c>
-      <c r="K150" s="22">
+      <c r="K150" s="18">
         <f t="shared" si="7"/>
         <v>150.34355828220896</v>
       </c>
     </row>
     <row r="151" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B151" s="14"/>
-      <c r="C151" s="22">
+      <c r="B151" s="11"/>
+      <c r="C151" s="18">
         <f t="shared" si="4"/>
         <v>3354.6993865030677</v>
       </c>
-      <c r="D151" s="12">
+      <c r="D151" s="9">
         <f t="shared" si="5"/>
         <v>2.67</v>
       </c>
-      <c r="E151" s="14">
+      <c r="E151" s="11">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="F151" s="20">
+      <c r="F151" s="17">
         <v>3.8</v>
       </c>
-      <c r="I151" s="22">
+      <c r="I151" s="18">
         <f t="shared" si="6"/>
         <v>3354.6993865030677</v>
       </c>
-      <c r="J151" s="23">
+      <c r="J151" s="19">
         <v>3204</v>
       </c>
-      <c r="K151" s="22">
+      <c r="K151" s="18">
         <f t="shared" si="7"/>
         <v>150.69938650306767</v>
       </c>
     </row>
     <row r="152" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B152" s="12"/>
-      <c r="C152" s="22">
+      <c r="B152" s="9"/>
+      <c r="C152" s="18">
         <f t="shared" si="4"/>
         <v>3229.0552147239264</v>
       </c>
-      <c r="D152" s="12">
+      <c r="D152" s="9">
         <f t="shared" si="5"/>
         <v>2.57</v>
       </c>
-      <c r="E152" s="12">
+      <c r="E152" s="9">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="F152" s="19">
+      <c r="F152" s="16">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I152" s="22">
+      <c r="I152" s="18">
         <f t="shared" si="6"/>
         <v>3229.0552147239264</v>
       </c>
-      <c r="J152" s="12">
+      <c r="J152" s="9">
         <v>3091</v>
       </c>
-      <c r="K152" s="22">
+      <c r="K152" s="18">
         <f t="shared" si="7"/>
         <v>138.05521472392638</v>
       </c>
     </row>
     <row r="153" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B153" s="14"/>
-      <c r="C153" s="22">
+      <c r="B153" s="11"/>
+      <c r="C153" s="18">
         <f t="shared" si="4"/>
         <v>3103.4110429447851</v>
       </c>
-      <c r="D153" s="12">
+      <c r="D153" s="9">
         <f t="shared" si="5"/>
         <v>2.4699999999999998</v>
       </c>
-      <c r="E153" s="14">
+      <c r="E153" s="11">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="F153" s="20">
+      <c r="F153" s="17">
         <v>5.9</v>
       </c>
-      <c r="I153" s="22">
+      <c r="I153" s="18">
         <f t="shared" si="6"/>
         <v>3103.4110429447851</v>
       </c>
-      <c r="J153" s="14">
+      <c r="J153" s="11">
         <v>2965</v>
       </c>
-      <c r="K153" s="22">
+      <c r="K153" s="18">
         <f t="shared" si="7"/>
         <v>138.41104294478509</v>
       </c>
     </row>
     <row r="154" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B154" s="12"/>
-      <c r="C154" s="22">
+      <c r="B154" s="9"/>
+      <c r="C154" s="18">
         <f t="shared" si="4"/>
         <v>2977.7668711656447</v>
       </c>
-      <c r="D154" s="12">
+      <c r="D154" s="9">
         <f t="shared" si="5"/>
         <v>2.37</v>
       </c>
-      <c r="E154" s="12">
+      <c r="E154" s="9">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="F154" s="19">
+      <c r="F154" s="16">
         <v>7</v>
       </c>
-      <c r="I154" s="22">
+      <c r="I154" s="18">
         <f t="shared" si="6"/>
         <v>2977.7668711656447</v>
       </c>
-      <c r="J154" s="23">
+      <c r="J154" s="19">
         <v>2852</v>
       </c>
-      <c r="K154" s="22">
+      <c r="K154" s="18">
         <f t="shared" si="7"/>
         <v>125.76687116564472</v>
       </c>
     </row>
     <row r="155" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B155" s="14"/>
-      <c r="C155" s="22">
+      <c r="B155" s="11"/>
+      <c r="C155" s="18">
         <f t="shared" si="4"/>
         <v>2852.1226993865034</v>
       </c>
-      <c r="D155" s="12">
+      <c r="D155" s="9">
         <f t="shared" si="5"/>
         <v>2.27</v>
       </c>
-      <c r="E155" s="14">
+      <c r="E155" s="11">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="F155" s="20">
+      <c r="F155" s="17">
         <v>8.1</v>
       </c>
-      <c r="I155" s="22">
+      <c r="I155" s="18">
         <f t="shared" si="6"/>
         <v>2852.1226993865034</v>
       </c>
-      <c r="J155" s="14">
+      <c r="J155" s="11">
         <v>2752</v>
       </c>
-      <c r="K155" s="22">
+      <c r="K155" s="18">
         <f t="shared" si="7"/>
         <v>100.12269938650343</v>
       </c>
     </row>
     <row r="156" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B156" s="12"/>
-      <c r="C156" s="22">
+      <c r="B156" s="9"/>
+      <c r="C156" s="18">
         <f t="shared" si="4"/>
         <v>2726.4785276073621</v>
       </c>
-      <c r="D156" s="12">
+      <c r="D156" s="9">
         <f t="shared" si="5"/>
         <v>2.17</v>
       </c>
-      <c r="E156" s="12">
+      <c r="E156" s="9">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="F156" s="19">
+      <c r="F156" s="16">
         <v>9.3000000000000007</v>
       </c>
-      <c r="I156" s="22">
+      <c r="I156" s="18">
         <f t="shared" si="6"/>
         <v>2726.4785276073621</v>
       </c>
-      <c r="J156" s="12">
+      <c r="J156" s="9">
         <v>2626</v>
       </c>
-      <c r="K156" s="22">
+      <c r="K156" s="18">
         <f t="shared" si="7"/>
         <v>100.47852760736214</v>
       </c>
     </row>
     <row r="157" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B157" s="14"/>
-      <c r="C157" s="22">
+      <c r="B157" s="11"/>
+      <c r="C157" s="18">
         <f t="shared" si="4"/>
         <v>2600.8343558282209</v>
       </c>
-      <c r="D157" s="12">
+      <c r="D157" s="9">
         <f t="shared" si="5"/>
         <v>2.0699999999999998</v>
       </c>
-      <c r="E157" s="14">
+      <c r="E157" s="11">
         <f t="shared" si="8"/>
         <v>11</v>
       </c>
-      <c r="F157" s="20">
+      <c r="F157" s="17">
         <v>10.3</v>
       </c>
-      <c r="I157" s="22">
+      <c r="I157" s="18">
         <f t="shared" si="6"/>
         <v>2600.8343558282209</v>
       </c>
-      <c r="J157" s="14">
+      <c r="J157" s="11">
         <v>2513</v>
       </c>
-      <c r="K157" s="22">
+      <c r="K157" s="18">
         <f t="shared" si="7"/>
         <v>87.834355828220851</v>
       </c>
     </row>
     <row r="158" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B158" s="12"/>
-      <c r="C158" s="22">
+      <c r="B158" s="9"/>
+      <c r="C158" s="18">
         <f t="shared" si="4"/>
         <v>2475.1901840490796</v>
       </c>
-      <c r="D158" s="12">
+      <c r="D158" s="9">
         <f t="shared" si="5"/>
         <v>1.9699999999999998</v>
       </c>
-      <c r="E158" s="12">
+      <c r="E158" s="9">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="F158" s="19">
+      <c r="F158" s="16">
         <v>11.3</v>
       </c>
-      <c r="I158" s="22">
+      <c r="I158" s="18">
         <f t="shared" si="6"/>
         <v>2475.1901840490796</v>
       </c>
-      <c r="J158" s="12">
+      <c r="J158" s="9">
         <v>2387</v>
       </c>
-      <c r="K158" s="22">
+      <c r="K158" s="18">
         <f t="shared" si="7"/>
         <v>88.190184049079562</v>
       </c>
     </row>
     <row r="159" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B159" s="14"/>
-      <c r="C159" s="22">
+      <c r="B159" s="11"/>
+      <c r="C159" s="18">
         <f t="shared" si="4"/>
         <v>2349.5460122699387</v>
       </c>
-      <c r="D159" s="12">
+      <c r="D159" s="9">
         <f t="shared" si="5"/>
         <v>1.8699999999999999</v>
       </c>
-      <c r="E159" s="14">
+      <c r="E159" s="11">
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
-      <c r="F159" s="20">
+      <c r="F159" s="17">
         <v>12.4</v>
       </c>
-      <c r="I159" s="22">
+      <c r="I159" s="18">
         <f t="shared" si="6"/>
         <v>2349.5460122699387</v>
       </c>
-      <c r="J159" s="14">
+      <c r="J159" s="11">
         <v>2274</v>
       </c>
-      <c r="K159" s="22">
+      <c r="K159" s="18">
         <f t="shared" si="7"/>
         <v>75.546012269938728</v>
       </c>
     </row>
     <row r="160" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B160" s="12"/>
-      <c r="C160" s="22">
+      <c r="B160" s="9"/>
+      <c r="C160" s="18">
         <f t="shared" si="4"/>
         <v>2223.9018404907974</v>
       </c>
-      <c r="D160" s="12">
+      <c r="D160" s="9">
         <f t="shared" si="5"/>
         <v>1.7699999999999998</v>
       </c>
-      <c r="E160" s="12">
+      <c r="E160" s="9">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="F160" s="19">
+      <c r="F160" s="16">
         <v>13.4</v>
       </c>
-      <c r="I160" s="22">
+      <c r="I160" s="18">
         <f t="shared" si="6"/>
         <v>2223.9018404907974</v>
       </c>
-      <c r="J160" s="12">
+      <c r="J160" s="9">
         <v>2149</v>
       </c>
-      <c r="K160" s="22">
+      <c r="K160" s="18">
         <f t="shared" si="7"/>
         <v>74.90184049079744</v>
       </c>
     </row>
     <row r="161" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B161" s="14"/>
-      <c r="C161" s="22">
+      <c r="B161" s="11"/>
+      <c r="C161" s="18">
         <f t="shared" si="4"/>
         <v>2098.2576687116566</v>
       </c>
-      <c r="D161" s="12">
+      <c r="D161" s="9">
         <f t="shared" si="5"/>
         <v>1.67</v>
       </c>
-      <c r="E161" s="14">
+      <c r="E161" s="11">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
-      <c r="F161" s="20">
+      <c r="F161" s="17">
         <v>14.5</v>
       </c>
-      <c r="I161" s="22">
+      <c r="I161" s="18">
         <f t="shared" si="6"/>
         <v>2098.2576687116566</v>
       </c>
-      <c r="J161" s="14">
+      <c r="J161" s="11">
         <v>2035</v>
       </c>
-      <c r="K161" s="22">
+      <c r="K161" s="18">
         <f t="shared" si="7"/>
         <v>63.257668711656606</v>
       </c>
     </row>
     <row r="162" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B162" s="12"/>
-      <c r="C162" s="22">
+      <c r="B162" s="9"/>
+      <c r="C162" s="18">
         <f t="shared" si="4"/>
         <v>1972.6134969325153</v>
       </c>
-      <c r="D162" s="12">
+      <c r="D162" s="9">
         <f t="shared" si="5"/>
         <v>1.5699999999999998</v>
       </c>
-      <c r="E162" s="12">
+      <c r="E162" s="9">
         <f t="shared" si="8"/>
         <v>16</v>
       </c>
-      <c r="F162" s="19">
+      <c r="F162" s="16">
         <v>15.5</v>
       </c>
-      <c r="I162" s="22">
+      <c r="I162" s="18">
         <f t="shared" si="6"/>
         <v>1972.6134969325153</v>
       </c>
-      <c r="J162" s="12">
+      <c r="J162" s="9">
         <v>1910</v>
       </c>
-      <c r="K162" s="22">
+      <c r="K162" s="18">
         <f t="shared" si="7"/>
         <v>62.613496932515318</v>
       </c>
     </row>
     <row r="163" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B163" s="14"/>
-      <c r="C163" s="22">
+      <c r="B163" s="11"/>
+      <c r="C163" s="18">
         <f t="shared" si="4"/>
         <v>1846.969325153374</v>
       </c>
-      <c r="D163" s="12">
+      <c r="D163" s="9">
         <f t="shared" si="5"/>
         <v>1.4699999999999998</v>
       </c>
-      <c r="E163" s="14">
+      <c r="E163" s="11">
         <f t="shared" si="8"/>
         <v>17</v>
       </c>
-      <c r="F163" s="20">
+      <c r="F163" s="17">
         <v>16.600000000000001</v>
       </c>
-      <c r="I163" s="22">
+      <c r="I163" s="18">
         <f t="shared" si="6"/>
         <v>1846.969325153374</v>
       </c>
-      <c r="J163" s="14">
+      <c r="J163" s="11">
         <v>1797</v>
       </c>
-      <c r="K163" s="22">
+      <c r="K163" s="18">
         <f t="shared" si="7"/>
         <v>49.969325153374029</v>
       </c>
@@ -6429,469 +7488,1604 @@
       </c>
     </row>
     <row r="164" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B164" s="12"/>
-      <c r="C164" s="22">
+      <c r="B164" s="9"/>
+      <c r="C164" s="18">
         <f t="shared" si="4"/>
         <v>1721.3251533742332</v>
       </c>
-      <c r="D164" s="12">
+      <c r="D164" s="9">
         <f t="shared" si="5"/>
         <v>1.3699999999999999</v>
       </c>
-      <c r="E164" s="12">
+      <c r="E164" s="9">
         <f t="shared" si="8"/>
         <v>18</v>
       </c>
-      <c r="F164" s="19">
+      <c r="F164" s="16">
         <v>17.600000000000001</v>
       </c>
-      <c r="I164" s="22">
+      <c r="I164" s="18">
         <f t="shared" si="6"/>
         <v>1721.3251533742332</v>
       </c>
-      <c r="J164" s="12">
+      <c r="J164" s="9">
         <v>1671</v>
       </c>
-      <c r="K164" s="22">
+      <c r="K164" s="18">
         <f t="shared" si="7"/>
         <v>50.325153374233196</v>
       </c>
     </row>
     <row r="165" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B165" s="14"/>
-      <c r="C165" s="22">
+      <c r="B165" s="11"/>
+      <c r="C165" s="18">
         <f t="shared" si="4"/>
         <v>1595.6809815950919</v>
       </c>
-      <c r="D165" s="12">
+      <c r="D165" s="9">
         <f t="shared" si="5"/>
         <v>1.2699999999999998</v>
       </c>
-      <c r="E165" s="14">
+      <c r="E165" s="11">
         <f t="shared" si="8"/>
         <v>19</v>
       </c>
-      <c r="F165" s="20">
+      <c r="F165" s="17">
         <v>18.7</v>
       </c>
-      <c r="I165" s="22">
+      <c r="I165" s="18">
         <f t="shared" si="6"/>
         <v>1595.6809815950919</v>
       </c>
-      <c r="J165" s="14">
+      <c r="J165" s="11">
         <v>1558</v>
       </c>
-      <c r="K165" s="22">
+      <c r="K165" s="18">
         <f t="shared" si="7"/>
         <v>37.680981595091907</v>
       </c>
     </row>
     <row r="166" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B166" s="12"/>
-      <c r="C166" s="22">
+      <c r="B166" s="9"/>
+      <c r="C166" s="18">
         <f t="shared" si="4"/>
         <v>1470.0368098159508</v>
       </c>
-      <c r="D166" s="12">
+      <c r="D166" s="9">
         <f t="shared" si="5"/>
         <v>1.17</v>
       </c>
-      <c r="E166" s="12">
+      <c r="E166" s="9">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="F166" s="19">
+      <c r="F166" s="16">
         <v>19.7</v>
       </c>
-      <c r="I166" s="22">
+      <c r="I166" s="18">
         <f t="shared" si="6"/>
         <v>1470.0368098159508</v>
       </c>
-      <c r="J166" s="12">
+      <c r="J166" s="9">
         <v>1432</v>
       </c>
-      <c r="K166" s="22">
+      <c r="K166" s="18">
         <f t="shared" si="7"/>
         <v>38.036809815950846</v>
       </c>
     </row>
     <row r="167" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B167" s="14"/>
-      <c r="C167" s="22">
+      <c r="B167" s="11"/>
+      <c r="C167" s="18">
         <f t="shared" si="4"/>
         <v>1344.3926380368098</v>
       </c>
-      <c r="D167" s="12">
+      <c r="D167" s="9">
         <f t="shared" si="5"/>
         <v>1.0699999999999998</v>
       </c>
-      <c r="E167" s="14">
+      <c r="E167" s="11">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="F167" s="20">
+      <c r="F167" s="17">
         <v>20.8</v>
       </c>
-      <c r="I167" s="22">
+      <c r="I167" s="18">
         <f t="shared" si="6"/>
         <v>1344.3926380368098</v>
       </c>
-      <c r="J167" s="14">
+      <c r="J167" s="11">
         <v>1319</v>
       </c>
-      <c r="K167" s="22">
+      <c r="K167" s="18">
         <f t="shared" si="7"/>
         <v>25.392638036809785</v>
       </c>
     </row>
     <row r="168" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B168" s="12"/>
-      <c r="C168" s="22">
+      <c r="B168" s="9"/>
+      <c r="C168" s="18">
         <f t="shared" si="4"/>
         <v>1218.7484662576685</v>
       </c>
-      <c r="D168" s="12">
+      <c r="D168" s="9">
         <f t="shared" si="5"/>
         <v>0.96999999999999975</v>
       </c>
-      <c r="E168" s="12">
+      <c r="E168" s="9">
         <f t="shared" si="8"/>
         <v>22</v>
       </c>
-      <c r="F168" s="19">
+      <c r="F168" s="16">
         <v>21.8</v>
       </c>
-      <c r="I168" s="22">
+      <c r="I168" s="18">
         <f t="shared" si="6"/>
         <v>1218.7484662576685</v>
       </c>
-      <c r="J168" s="12">
+      <c r="J168" s="9">
         <v>1194</v>
       </c>
-      <c r="K168" s="22">
+      <c r="K168" s="18">
         <f t="shared" si="7"/>
         <v>24.748466257668497</v>
       </c>
     </row>
     <row r="169" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B169" s="14"/>
-      <c r="C169" s="22">
+      <c r="B169" s="11"/>
+      <c r="C169" s="18">
         <f t="shared" si="4"/>
         <v>1093.1042944785272</v>
       </c>
-      <c r="D169" s="12">
+      <c r="D169" s="9">
         <f t="shared" si="5"/>
         <v>0.86999999999999966</v>
       </c>
-      <c r="E169" s="14">
+      <c r="E169" s="11">
         <f t="shared" si="8"/>
         <v>23</v>
       </c>
-      <c r="F169" s="20">
+      <c r="F169" s="17">
         <v>22.85</v>
       </c>
-      <c r="I169" s="22">
+      <c r="I169" s="18">
         <f t="shared" si="6"/>
         <v>1093.1042944785272</v>
       </c>
-      <c r="J169" s="14">
+      <c r="J169" s="11">
         <v>1081</v>
       </c>
-      <c r="K169" s="22">
+      <c r="K169" s="18">
         <f t="shared" si="7"/>
         <v>12.104294478527208</v>
       </c>
     </row>
     <row r="170" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B170" s="12"/>
-      <c r="C170" s="22">
+      <c r="B170" s="9"/>
+      <c r="C170" s="18">
         <f t="shared" si="4"/>
         <v>967.46012269938603</v>
       </c>
-      <c r="D170" s="12">
+      <c r="D170" s="9">
         <f t="shared" si="5"/>
         <v>0.76999999999999957</v>
       </c>
-      <c r="E170" s="12">
+      <c r="E170" s="9">
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="F170" s="19">
+      <c r="F170" s="16">
         <v>23.85</v>
       </c>
-      <c r="I170" s="22">
+      <c r="I170" s="18">
         <f t="shared" si="6"/>
         <v>967.46012269938603</v>
       </c>
-      <c r="J170" s="12">
+      <c r="J170" s="9">
         <v>955</v>
       </c>
-      <c r="K170" s="22">
+      <c r="K170" s="18">
         <f t="shared" si="7"/>
         <v>12.460122699386034</v>
       </c>
     </row>
     <row r="171" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B171" s="14"/>
-      <c r="C171" s="22">
+      <c r="B171" s="11"/>
+      <c r="C171" s="18">
         <f t="shared" si="4"/>
         <v>841.81595092024531</v>
       </c>
-      <c r="D171" s="12">
+      <c r="D171" s="9">
         <f t="shared" si="5"/>
         <v>0.66999999999999993</v>
       </c>
-      <c r="E171" s="14">
+      <c r="E171" s="11">
         <f t="shared" si="8"/>
         <v>25</v>
       </c>
-      <c r="F171" s="20">
+      <c r="F171" s="17">
         <v>24.9</v>
       </c>
-      <c r="I171" s="22">
+      <c r="I171" s="18">
         <f t="shared" si="6"/>
         <v>841.81595092024531</v>
       </c>
-      <c r="J171" s="14">
+      <c r="J171" s="11">
         <v>842</v>
       </c>
-      <c r="K171" s="22">
+      <c r="K171" s="18">
         <f t="shared" si="7"/>
         <v>-0.18404907975468632</v>
       </c>
     </row>
     <row r="172" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B172" s="12"/>
-      <c r="C172" s="22">
+      <c r="B172" s="9"/>
+      <c r="C172" s="18">
         <f t="shared" si="4"/>
         <v>716.17177914110414</v>
       </c>
-      <c r="D172" s="12">
+      <c r="D172" s="9">
         <f t="shared" si="5"/>
         <v>0.56999999999999984</v>
       </c>
-      <c r="E172" s="12">
+      <c r="E172" s="9">
         <f t="shared" si="8"/>
         <v>26</v>
       </c>
-      <c r="F172" s="19">
+      <c r="F172" s="16">
         <v>25.9</v>
       </c>
-      <c r="I172" s="22">
+      <c r="I172" s="18">
         <f t="shared" si="6"/>
         <v>716.17177914110414</v>
       </c>
-      <c r="J172" s="12">
+      <c r="J172" s="9">
         <v>716</v>
       </c>
-      <c r="K172" s="22">
+      <c r="K172" s="18">
         <f t="shared" si="7"/>
         <v>0.17177914110413894</v>
       </c>
     </row>
     <row r="173" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B173" s="14"/>
-      <c r="C173" s="22">
+      <c r="B173" s="11"/>
+      <c r="C173" s="18">
         <f t="shared" si="4"/>
         <v>590.52760736196296</v>
       </c>
-      <c r="D173" s="12">
+      <c r="D173" s="9">
         <f t="shared" si="5"/>
         <v>0.46999999999999975</v>
       </c>
-      <c r="E173" s="14">
+      <c r="E173" s="11">
         <f t="shared" si="8"/>
         <v>27</v>
       </c>
-      <c r="F173" s="20">
+      <c r="F173" s="17">
         <v>27</v>
       </c>
-      <c r="I173" s="22">
+      <c r="I173" s="18">
         <f t="shared" si="6"/>
         <v>590.52760736196296</v>
       </c>
-      <c r="J173" s="14">
+      <c r="J173" s="11">
         <v>591</v>
       </c>
-      <c r="K173" s="22">
+      <c r="K173" s="18">
         <f t="shared" si="7"/>
         <v>-0.47239263803703579</v>
       </c>
     </row>
     <row r="174" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B174" s="12"/>
-      <c r="C174" s="22">
+      <c r="B174" s="9"/>
+      <c r="C174" s="18">
         <f t="shared" si="4"/>
         <v>464.88343558282168</v>
       </c>
-      <c r="D174" s="12">
+      <c r="D174" s="9">
         <f t="shared" si="5"/>
         <v>0.36999999999999966</v>
       </c>
-      <c r="E174" s="12">
+      <c r="E174" s="9">
         <f t="shared" si="8"/>
         <v>28</v>
       </c>
-      <c r="F174" s="19">
+      <c r="F174" s="16">
         <v>28</v>
       </c>
-      <c r="I174" s="22">
+      <c r="I174" s="18">
         <f t="shared" si="6"/>
         <v>464.88343558282168</v>
       </c>
-      <c r="J174" s="12">
+      <c r="J174" s="9">
         <v>465</v>
       </c>
-      <c r="K174" s="22">
+      <c r="K174" s="18">
         <f t="shared" si="7"/>
         <v>-0.11656441717832422</v>
       </c>
     </row>
     <row r="175" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B175" s="14"/>
-      <c r="C175" s="22">
+      <c r="B175" s="11"/>
+      <c r="C175" s="18">
         <f t="shared" si="4"/>
         <v>339.23926380368044</v>
       </c>
-      <c r="D175" s="12">
+      <c r="D175" s="9">
         <f t="shared" si="5"/>
         <v>0.26999999999999957</v>
       </c>
-      <c r="E175" s="14">
+      <c r="E175" s="11">
         <f t="shared" si="8"/>
         <v>29</v>
       </c>
-      <c r="F175" s="20">
+      <c r="F175" s="17">
         <v>29</v>
       </c>
-      <c r="I175" s="22">
+      <c r="I175" s="18">
         <f t="shared" si="6"/>
         <v>339.23926380368044</v>
       </c>
-      <c r="J175" s="14">
+      <c r="J175" s="11">
         <v>339</v>
       </c>
-      <c r="K175" s="22">
+      <c r="K175" s="18">
         <f t="shared" si="7"/>
         <v>0.2392638036804442</v>
       </c>
     </row>
     <row r="176" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B176" s="12"/>
-      <c r="C176" s="22">
+      <c r="B176" s="9"/>
+      <c r="C176" s="18">
         <f t="shared" si="4"/>
         <v>213.59509202453981</v>
       </c>
-      <c r="D176" s="12">
+      <c r="D176" s="9">
         <f t="shared" si="5"/>
         <v>0.16999999999999993</v>
       </c>
-      <c r="E176" s="12">
+      <c r="E176" s="9">
         <f>E175+1</f>
         <v>30</v>
       </c>
-      <c r="F176" s="19">
+      <c r="F176" s="16">
         <v>30</v>
       </c>
-      <c r="I176" s="22">
+      <c r="I176" s="18">
         <f t="shared" si="6"/>
         <v>213.59509202453981</v>
       </c>
-      <c r="J176" s="22">
+      <c r="J176" s="18">
         <v>214</v>
       </c>
-      <c r="K176" s="22">
+      <c r="K176" s="18">
         <f t="shared" si="7"/>
         <v>-0.40490797546019053</v>
       </c>
     </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B191" t="s">
+    <row r="184" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="185" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="M185" s="20"/>
+      <c r="N185" s="20"/>
+      <c r="O185" s="20"/>
+      <c r="P185" s="20"/>
+      <c r="Q185" s="20"/>
+      <c r="R185" s="20"/>
+      <c r="S185" s="20"/>
+      <c r="T185" s="20"/>
+    </row>
+    <row r="186" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="M186" s="20"/>
+      <c r="N186" s="20"/>
+      <c r="O186" s="20"/>
+      <c r="P186" s="20"/>
+      <c r="Q186" s="20"/>
+      <c r="R186" s="20"/>
+      <c r="S186" s="20"/>
+      <c r="T186" s="20"/>
+    </row>
+    <row r="187" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B187" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D187" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E187" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F187" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I187" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J187" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K187" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M187" s="20"/>
+      <c r="N187" s="21"/>
+      <c r="O187" s="21"/>
+      <c r="P187" s="21"/>
+      <c r="Q187" s="21"/>
+      <c r="R187" s="21"/>
+      <c r="S187" s="20"/>
+      <c r="T187" s="20"/>
+    </row>
+    <row r="188" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B188" s="9"/>
+      <c r="C188" s="18">
+        <f>D188*4096/3.26</f>
+        <v>3857.2760736196319</v>
+      </c>
+      <c r="D188" s="9">
+        <f>3.17-E188*0.1</f>
+        <v>3.07</v>
+      </c>
+      <c r="E188" s="9">
+        <v>1</v>
+      </c>
+      <c r="F188" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="I188" s="18">
+        <f>D188*4096/3.26</f>
+        <v>3857.2760736196319</v>
+      </c>
+      <c r="J188" s="9">
+        <v>3740</v>
+      </c>
+      <c r="K188" s="18">
+        <f>I188-J188</f>
+        <v>117.27607361963192</v>
+      </c>
+      <c r="M188" s="20"/>
+      <c r="N188" s="22"/>
+      <c r="O188" s="23"/>
+      <c r="P188" s="22"/>
+      <c r="Q188" s="22"/>
+      <c r="R188" s="22"/>
+      <c r="S188" s="20"/>
+      <c r="T188" s="20"/>
+    </row>
+    <row r="189" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B189" s="11"/>
+      <c r="C189" s="18">
+        <f t="shared" ref="C189:C218" si="9">D189*4096/3.26</f>
+        <v>3794.4539877300617</v>
+      </c>
+      <c r="D189" s="9">
+        <f t="shared" ref="D189:D218" si="10">3.17-E189*0.1</f>
+        <v>3.02</v>
+      </c>
+      <c r="E189" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="F189" s="17">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I189" s="18">
+        <f t="shared" ref="I189:I218" si="11">D189*4096/3.26</f>
+        <v>3794.4539877300617</v>
+      </c>
+      <c r="J189" s="11">
+        <v>3678</v>
+      </c>
+      <c r="K189" s="18">
+        <f t="shared" ref="K189:K218" si="12">I189-J189</f>
+        <v>116.45398773006173</v>
+      </c>
+      <c r="M189" s="20"/>
+      <c r="N189" s="22"/>
+      <c r="O189" s="23"/>
+      <c r="P189" s="22"/>
+      <c r="Q189" s="22"/>
+      <c r="R189" s="22"/>
+      <c r="S189" s="20"/>
+      <c r="T189" s="20"/>
+    </row>
+    <row r="190" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B190" s="9"/>
+      <c r="C190" s="18">
+        <f t="shared" si="9"/>
+        <v>3731.6319018404906</v>
+      </c>
+      <c r="D190" s="9">
+        <f t="shared" si="10"/>
+        <v>2.9699999999999998</v>
+      </c>
+      <c r="E190" s="9">
+        <v>2</v>
+      </c>
+      <c r="F190" s="16">
+        <v>1.07</v>
+      </c>
+      <c r="I190" s="18">
+        <f t="shared" si="11"/>
+        <v>3731.6319018404906</v>
+      </c>
+      <c r="J190" s="9">
+        <v>3617</v>
+      </c>
+      <c r="K190" s="18">
+        <f t="shared" si="12"/>
+        <v>114.63190184049063</v>
+      </c>
+      <c r="M190" s="20"/>
+      <c r="N190" s="22"/>
+      <c r="O190" s="23"/>
+      <c r="P190" s="22"/>
+      <c r="Q190" s="22"/>
+      <c r="R190" s="22"/>
+      <c r="S190" s="20"/>
+      <c r="T190" s="20"/>
+    </row>
+    <row r="191" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B191" s="11"/>
+      <c r="C191" s="18">
+        <f t="shared" si="9"/>
+        <v>3605.9877300613502</v>
+      </c>
+      <c r="D191" s="9">
+        <f t="shared" si="10"/>
+        <v>2.87</v>
+      </c>
+      <c r="E191" s="11">
+        <f>E190+1</f>
+        <v>3</v>
+      </c>
+      <c r="F191" s="17">
+        <v>2.11</v>
+      </c>
+      <c r="I191" s="18">
+        <f t="shared" si="11"/>
+        <v>3605.9877300613502</v>
+      </c>
+      <c r="J191" s="11">
+        <v>3495</v>
+      </c>
+      <c r="K191" s="18">
+        <f t="shared" si="12"/>
+        <v>110.98773006135025</v>
+      </c>
+      <c r="M191" s="20"/>
+      <c r="N191" s="22"/>
+      <c r="O191" s="23"/>
+      <c r="P191" s="22"/>
+      <c r="Q191" s="22"/>
+      <c r="R191" s="22"/>
+      <c r="S191" s="20"/>
+      <c r="T191" s="20"/>
+    </row>
+    <row r="192" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B192" s="9"/>
+      <c r="C192" s="18">
+        <f t="shared" si="9"/>
+        <v>3480.343558282209</v>
+      </c>
+      <c r="D192" s="9">
+        <f t="shared" si="10"/>
+        <v>2.77</v>
+      </c>
+      <c r="E192" s="9">
+        <f t="shared" ref="E192:E217" si="13">E191+1</f>
+        <v>4</v>
+      </c>
+      <c r="F192" s="16">
+        <v>3.13</v>
+      </c>
+      <c r="I192" s="18">
+        <f t="shared" si="11"/>
+        <v>3480.343558282209</v>
+      </c>
+      <c r="J192" s="9">
+        <v>3375</v>
+      </c>
+      <c r="K192" s="18">
+        <f t="shared" si="12"/>
+        <v>105.34355828220896</v>
+      </c>
+      <c r="M192" s="20"/>
+      <c r="N192" s="22"/>
+      <c r="O192" s="23"/>
+      <c r="P192" s="22"/>
+      <c r="Q192" s="22"/>
+      <c r="R192" s="22"/>
+      <c r="S192" s="20"/>
+      <c r="T192" s="20"/>
+    </row>
+    <row r="193" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B193" s="11"/>
+      <c r="C193" s="18">
+        <f t="shared" si="9"/>
+        <v>3354.6993865030677</v>
+      </c>
+      <c r="D193" s="9">
+        <f t="shared" si="10"/>
+        <v>2.67</v>
+      </c>
+      <c r="E193" s="11">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="F193" s="17">
+        <v>4.22</v>
+      </c>
+      <c r="I193" s="18">
+        <f t="shared" si="11"/>
+        <v>3354.6993865030677</v>
+      </c>
+      <c r="J193" s="19">
+        <v>3253</v>
+      </c>
+      <c r="K193" s="18">
+        <f t="shared" si="12"/>
+        <v>101.69938650306767</v>
+      </c>
+      <c r="M193" s="20"/>
+      <c r="N193" s="22"/>
+      <c r="O193" s="23"/>
+      <c r="P193" s="22"/>
+      <c r="Q193" s="22"/>
+      <c r="R193" s="22"/>
+      <c r="S193" s="20"/>
+      <c r="T193" s="20"/>
+    </row>
+    <row r="194" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B194" s="9"/>
+      <c r="C194" s="18">
+        <f t="shared" si="9"/>
+        <v>3229.0552147239264</v>
+      </c>
+      <c r="D194" s="9">
+        <f t="shared" si="10"/>
+        <v>2.57</v>
+      </c>
+      <c r="E194" s="9">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="F194" s="16">
+        <v>5.25</v>
+      </c>
+      <c r="I194" s="18">
+        <f t="shared" si="11"/>
+        <v>3229.0552147239264</v>
+      </c>
+      <c r="J194" s="9">
+        <v>3133</v>
+      </c>
+      <c r="K194" s="18">
+        <f t="shared" si="12"/>
+        <v>96.055214723926383</v>
+      </c>
+      <c r="M194" s="20"/>
+      <c r="N194" s="22"/>
+      <c r="O194" s="23"/>
+      <c r="P194" s="22"/>
+      <c r="Q194" s="22"/>
+      <c r="R194" s="22"/>
+      <c r="S194" s="20"/>
+      <c r="T194" s="20"/>
+    </row>
+    <row r="195" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B195" s="11"/>
+      <c r="C195" s="18">
+        <f t="shared" si="9"/>
+        <v>3103.4110429447851</v>
+      </c>
+      <c r="D195" s="9">
+        <f t="shared" si="10"/>
+        <v>2.4699999999999998</v>
+      </c>
+      <c r="E195" s="11">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="F195" s="17">
+        <v>6.27</v>
+      </c>
+      <c r="I195" s="18">
+        <f t="shared" si="11"/>
+        <v>3103.4110429447851</v>
+      </c>
+      <c r="J195" s="11">
+        <v>3015</v>
+      </c>
+      <c r="K195" s="18">
+        <f t="shared" si="12"/>
+        <v>88.411042944785095</v>
+      </c>
+      <c r="M195" s="20"/>
+      <c r="N195" s="22"/>
+      <c r="O195" s="23"/>
+      <c r="P195" s="22"/>
+      <c r="Q195" s="22"/>
+      <c r="R195" s="22"/>
+      <c r="S195" s="20"/>
+      <c r="T195" s="20"/>
+    </row>
+    <row r="196" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B196" s="9"/>
+      <c r="C196" s="18">
+        <f t="shared" si="9"/>
+        <v>2977.7668711656447</v>
+      </c>
+      <c r="D196" s="9">
+        <f t="shared" si="10"/>
+        <v>2.37</v>
+      </c>
+      <c r="E196" s="9">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="F196" s="16">
+        <v>7.35</v>
+      </c>
+      <c r="I196" s="18">
+        <f t="shared" si="11"/>
+        <v>2977.7668711656447</v>
+      </c>
+      <c r="J196" s="19">
+        <v>2915</v>
+      </c>
+      <c r="K196" s="18">
+        <f t="shared" si="12"/>
+        <v>62.766871165644716</v>
+      </c>
+      <c r="M196" s="20"/>
+      <c r="N196" s="22"/>
+      <c r="O196" s="23"/>
+      <c r="P196" s="22"/>
+      <c r="Q196" s="22"/>
+      <c r="R196" s="22"/>
+      <c r="S196" s="20"/>
+      <c r="T196" s="20"/>
+    </row>
+    <row r="197" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B197" s="11"/>
+      <c r="C197" s="18">
+        <f t="shared" si="9"/>
+        <v>2852.1226993865034</v>
+      </c>
+      <c r="D197" s="9">
+        <f t="shared" si="10"/>
+        <v>2.27</v>
+      </c>
+      <c r="E197" s="11">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="F197" s="17">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="I197" s="18">
+        <f t="shared" si="11"/>
+        <v>2852.1226993865034</v>
+      </c>
+      <c r="J197" s="11">
+        <v>2804</v>
+      </c>
+      <c r="K197" s="18">
+        <f t="shared" si="12"/>
+        <v>48.122699386503427</v>
+      </c>
+      <c r="M197" s="20"/>
+      <c r="N197" s="22"/>
+      <c r="O197" s="23"/>
+      <c r="P197" s="22"/>
+      <c r="Q197" s="22"/>
+      <c r="R197" s="22"/>
+      <c r="S197" s="20"/>
+      <c r="T197" s="20"/>
+    </row>
+    <row r="198" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B198" s="9"/>
+      <c r="C198" s="18">
+        <f t="shared" si="9"/>
+        <v>2726.4785276073621</v>
+      </c>
+      <c r="D198" s="9">
+        <f t="shared" si="10"/>
+        <v>2.17</v>
+      </c>
+      <c r="E198" s="9">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="F198" s="16">
+        <v>9.66</v>
+      </c>
+      <c r="I198" s="18">
+        <f t="shared" si="11"/>
+        <v>2726.4785276073621</v>
+      </c>
+      <c r="J198" s="9">
+        <v>2685</v>
+      </c>
+      <c r="K198" s="18">
+        <f t="shared" si="12"/>
+        <v>41.478527607362139</v>
+      </c>
+      <c r="M198" s="20"/>
+      <c r="N198" s="22"/>
+      <c r="O198" s="23"/>
+      <c r="P198" s="22"/>
+      <c r="Q198" s="22"/>
+      <c r="R198" s="22"/>
+      <c r="S198" s="20"/>
+      <c r="T198" s="20"/>
+    </row>
+    <row r="199" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B199" s="11"/>
+      <c r="C199" s="18">
+        <f t="shared" si="9"/>
+        <v>2600.8343558282209</v>
+      </c>
+      <c r="D199" s="9">
+        <f t="shared" si="10"/>
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="E199" s="11">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+      <c r="F199" s="17">
+        <v>10.73</v>
+      </c>
+      <c r="I199" s="18">
+        <f t="shared" si="11"/>
+        <v>2600.8343558282209</v>
+      </c>
+      <c r="J199" s="11">
+        <v>2564</v>
+      </c>
+      <c r="K199" s="18">
+        <f t="shared" si="12"/>
+        <v>36.834355828220851</v>
+      </c>
+      <c r="M199" s="20"/>
+      <c r="N199" s="22"/>
+      <c r="O199" s="23"/>
+      <c r="P199" s="22"/>
+      <c r="Q199" s="22"/>
+      <c r="R199" s="22"/>
+      <c r="S199" s="20"/>
+      <c r="T199" s="20"/>
+    </row>
+    <row r="200" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B200" s="9"/>
+      <c r="C200" s="18">
+        <f t="shared" si="9"/>
+        <v>2475.1901840490796</v>
+      </c>
+      <c r="D200" s="9">
+        <f t="shared" si="10"/>
+        <v>1.9699999999999998</v>
+      </c>
+      <c r="E200" s="9">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="F200" s="16">
+        <v>11.77</v>
+      </c>
+      <c r="I200" s="18">
+        <f t="shared" si="11"/>
+        <v>2475.1901840490796</v>
+      </c>
+      <c r="J200" s="9">
+        <v>2447</v>
+      </c>
+      <c r="K200" s="18">
+        <f t="shared" si="12"/>
+        <v>28.190184049079562</v>
+      </c>
+      <c r="M200" s="20"/>
+      <c r="N200" s="22"/>
+      <c r="O200" s="23"/>
+      <c r="P200" s="22"/>
+      <c r="Q200" s="22"/>
+      <c r="R200" s="22"/>
+      <c r="S200" s="20"/>
+      <c r="T200" s="20"/>
+    </row>
+    <row r="201" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B201" s="11"/>
+      <c r="C201" s="18">
+        <f t="shared" si="9"/>
+        <v>2349.5460122699387</v>
+      </c>
+      <c r="D201" s="9">
+        <f t="shared" si="10"/>
+        <v>1.8699999999999999</v>
+      </c>
+      <c r="E201" s="11">
+        <f t="shared" si="13"/>
+        <v>13</v>
+      </c>
+      <c r="F201" s="17">
+        <v>12.81</v>
+      </c>
+      <c r="I201" s="18">
+        <f t="shared" si="11"/>
+        <v>2349.5460122699387</v>
+      </c>
+      <c r="J201" s="11">
+        <v>2327</v>
+      </c>
+      <c r="K201" s="18">
+        <f t="shared" si="12"/>
+        <v>22.546012269938728</v>
+      </c>
+      <c r="M201" s="20"/>
+      <c r="N201" s="22"/>
+      <c r="O201" s="23"/>
+      <c r="P201" s="22"/>
+      <c r="Q201" s="22"/>
+      <c r="R201" s="22"/>
+      <c r="S201" s="20"/>
+      <c r="T201" s="20"/>
+    </row>
+    <row r="202" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B202" s="9"/>
+      <c r="C202" s="18">
+        <f t="shared" si="9"/>
+        <v>2223.9018404907974</v>
+      </c>
+      <c r="D202" s="9">
+        <f t="shared" si="10"/>
+        <v>1.7699999999999998</v>
+      </c>
+      <c r="E202" s="9">
+        <f t="shared" si="13"/>
+        <v>14</v>
+      </c>
+      <c r="F202" s="16">
+        <v>13.86</v>
+      </c>
+      <c r="I202" s="18">
+        <f t="shared" si="11"/>
+        <v>2223.9018404907974</v>
+      </c>
+      <c r="J202" s="9">
+        <v>2206</v>
+      </c>
+      <c r="K202" s="18">
+        <f t="shared" si="12"/>
+        <v>17.90184049079744</v>
+      </c>
+      <c r="M202" s="20"/>
+      <c r="N202" s="22"/>
+      <c r="O202" s="23"/>
+      <c r="P202" s="22"/>
+      <c r="Q202" s="22"/>
+      <c r="R202" s="22"/>
+      <c r="S202" s="20"/>
+      <c r="T202" s="20"/>
+    </row>
+    <row r="203" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B203" s="11"/>
+      <c r="C203" s="18">
+        <f t="shared" si="9"/>
+        <v>2098.2576687116566</v>
+      </c>
+      <c r="D203" s="9">
+        <f t="shared" si="10"/>
+        <v>1.67</v>
+      </c>
+      <c r="E203" s="11">
+        <f t="shared" si="13"/>
+        <v>15</v>
+      </c>
+      <c r="F203" s="17">
+        <v>14.92</v>
+      </c>
+      <c r="I203" s="18">
+        <f t="shared" si="11"/>
+        <v>2098.2576687116566</v>
+      </c>
+      <c r="J203" s="11">
+        <v>2089</v>
+      </c>
+      <c r="K203" s="18">
+        <f t="shared" si="12"/>
+        <v>9.2576687116566063</v>
+      </c>
+      <c r="M203" s="20"/>
+      <c r="N203" s="22"/>
+      <c r="O203" s="23"/>
+      <c r="P203" s="22"/>
+      <c r="Q203" s="22"/>
+      <c r="R203" s="22"/>
+      <c r="S203" s="20"/>
+      <c r="T203" s="20"/>
+    </row>
+    <row r="204" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B204" s="9"/>
+      <c r="C204" s="18">
+        <f t="shared" si="9"/>
+        <v>1972.6134969325153</v>
+      </c>
+      <c r="D204" s="9">
+        <f t="shared" si="10"/>
+        <v>1.5699999999999998</v>
+      </c>
+      <c r="E204" s="9">
+        <f t="shared" si="13"/>
+        <v>16</v>
+      </c>
+      <c r="F204" s="16">
+        <v>16.07</v>
+      </c>
+      <c r="I204" s="18">
+        <f t="shared" si="11"/>
+        <v>1972.6134969325153</v>
+      </c>
+      <c r="J204" s="9">
+        <v>1967</v>
+      </c>
+      <c r="K204" s="18">
+        <f t="shared" si="12"/>
+        <v>5.6134969325153179</v>
+      </c>
+      <c r="M204" s="20"/>
+      <c r="N204" s="22"/>
+      <c r="O204" s="23"/>
+      <c r="P204" s="22"/>
+      <c r="Q204" s="22"/>
+      <c r="R204" s="22"/>
+      <c r="S204" s="20"/>
+      <c r="T204" s="20"/>
+    </row>
+    <row r="205" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B205" s="11"/>
+      <c r="C205" s="18">
+        <f t="shared" si="9"/>
+        <v>1846.969325153374</v>
+      </c>
+      <c r="D205" s="9">
+        <f t="shared" si="10"/>
+        <v>1.4699999999999998</v>
+      </c>
+      <c r="E205" s="11">
+        <f t="shared" si="13"/>
+        <v>17</v>
+      </c>
+      <c r="F205" s="17">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="I205" s="18">
+        <f t="shared" si="11"/>
+        <v>1846.969325153374</v>
+      </c>
+      <c r="J205" s="11">
+        <v>1847</v>
+      </c>
+      <c r="K205" s="18">
+        <f t="shared" si="12"/>
+        <v>-3.0674846625970531E-2</v>
+      </c>
+      <c r="M205" s="20"/>
+      <c r="N205" s="22"/>
+      <c r="O205" s="23"/>
+      <c r="P205" s="22"/>
+      <c r="Q205" s="22"/>
+      <c r="R205" s="22"/>
+      <c r="S205" s="20"/>
+      <c r="T205" s="20"/>
+    </row>
+    <row r="206" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B206" s="9"/>
+      <c r="C206" s="18">
+        <f t="shared" si="9"/>
+        <v>1721.3251533742332</v>
+      </c>
+      <c r="D206" s="9">
+        <f t="shared" si="10"/>
+        <v>1.3699999999999999</v>
+      </c>
+      <c r="E206" s="9">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="F206" s="16">
+        <v>18.13</v>
+      </c>
+      <c r="I206" s="18">
+        <f t="shared" si="11"/>
+        <v>1721.3251533742332</v>
+      </c>
+      <c r="J206" s="9">
+        <v>1726</v>
+      </c>
+      <c r="K206" s="18">
+        <f t="shared" si="12"/>
+        <v>-4.6748466257668042</v>
+      </c>
+      <c r="M206" s="20"/>
+      <c r="N206" s="22"/>
+      <c r="O206" s="23"/>
+      <c r="P206" s="22"/>
+      <c r="Q206" s="22"/>
+      <c r="R206" s="22"/>
+      <c r="S206" s="20"/>
+      <c r="T206" s="20"/>
+    </row>
+    <row r="207" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B207" s="11"/>
+      <c r="C207" s="18">
+        <f t="shared" si="9"/>
+        <v>1595.6809815950919</v>
+      </c>
+      <c r="D207" s="9">
+        <f t="shared" si="10"/>
+        <v>1.2699999999999998</v>
+      </c>
+      <c r="E207" s="11">
+        <f t="shared" si="13"/>
+        <v>19</v>
+      </c>
+      <c r="F207" s="17">
+        <v>19.170000000000002</v>
+      </c>
+      <c r="I207" s="18">
+        <f t="shared" si="11"/>
+        <v>1595.6809815950919</v>
+      </c>
+      <c r="J207" s="11">
+        <v>1606</v>
+      </c>
+      <c r="K207" s="18">
+        <f t="shared" si="12"/>
+        <v>-10.319018404908093</v>
+      </c>
+      <c r="M207" s="20"/>
+      <c r="N207" s="22"/>
+      <c r="O207" s="23"/>
+      <c r="P207" s="22"/>
+      <c r="Q207" s="22"/>
+      <c r="R207" s="22"/>
+      <c r="S207" s="20"/>
+      <c r="T207" s="20"/>
+    </row>
+    <row r="208" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B208" s="9"/>
+      <c r="C208" s="18">
+        <f t="shared" si="9"/>
+        <v>1470.0368098159508</v>
+      </c>
+      <c r="D208" s="9">
+        <f t="shared" si="10"/>
+        <v>1.17</v>
+      </c>
+      <c r="E208" s="9">
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
-      <c r="C191" t="s">
-        <v>19</v>
-      </c>
-      <c r="D191" t="s">
+      <c r="F208" s="16">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="I208" s="18">
+        <f t="shared" si="11"/>
+        <v>1470.0368098159508</v>
+      </c>
+      <c r="J208" s="9">
+        <v>1483</v>
+      </c>
+      <c r="K208" s="18">
+        <f t="shared" si="12"/>
+        <v>-12.963190184049154</v>
+      </c>
+      <c r="M208" s="20"/>
+      <c r="N208" s="22"/>
+      <c r="O208" s="23"/>
+      <c r="P208" s="22"/>
+      <c r="Q208" s="22"/>
+      <c r="R208" s="22"/>
+      <c r="S208" s="20"/>
+      <c r="T208" s="20"/>
+    </row>
+    <row r="209" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B209" s="11"/>
+      <c r="C209" s="18">
+        <f t="shared" si="9"/>
+        <v>1344.3926380368098</v>
+      </c>
+      <c r="D209" s="9">
+        <f t="shared" si="10"/>
+        <v>1.0699999999999998</v>
+      </c>
+      <c r="E209" s="11">
+        <f t="shared" si="13"/>
+        <v>21</v>
+      </c>
+      <c r="F209" s="17">
+        <v>21.1</v>
+      </c>
+      <c r="I209" s="18">
+        <f t="shared" si="11"/>
+        <v>1344.3926380368098</v>
+      </c>
+      <c r="J209" s="11">
+        <v>1362</v>
+      </c>
+      <c r="K209" s="18">
+        <f t="shared" si="12"/>
+        <v>-17.607361963190215</v>
+      </c>
+      <c r="M209" s="20"/>
+      <c r="N209" s="22"/>
+      <c r="O209" s="23"/>
+      <c r="P209" s="22"/>
+      <c r="Q209" s="22"/>
+      <c r="R209" s="22"/>
+      <c r="S209" s="20"/>
+      <c r="T209" s="20"/>
+    </row>
+    <row r="210" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B210" s="9"/>
+      <c r="C210" s="18">
+        <f t="shared" si="9"/>
+        <v>1218.7484662576685</v>
+      </c>
+      <c r="D210" s="9">
+        <f t="shared" si="10"/>
+        <v>0.96999999999999975</v>
+      </c>
+      <c r="E210" s="9">
+        <f t="shared" si="13"/>
+        <v>22</v>
+      </c>
+      <c r="F210" s="16">
+        <v>22.15</v>
+      </c>
+      <c r="I210" s="18">
+        <f t="shared" si="11"/>
+        <v>1218.7484662576685</v>
+      </c>
+      <c r="J210" s="9">
+        <v>1238</v>
+      </c>
+      <c r="K210" s="18">
+        <f t="shared" si="12"/>
+        <v>-19.251533742331503</v>
+      </c>
+      <c r="M210" s="20"/>
+      <c r="N210" s="22"/>
+      <c r="O210" s="23"/>
+      <c r="P210" s="22"/>
+      <c r="Q210" s="22"/>
+      <c r="R210" s="22"/>
+      <c r="S210" s="20"/>
+      <c r="T210" s="20"/>
+    </row>
+    <row r="211" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B211" s="11"/>
+      <c r="C211" s="18">
+        <f t="shared" si="9"/>
+        <v>1093.1042944785272</v>
+      </c>
+      <c r="D211" s="9">
+        <f t="shared" si="10"/>
+        <v>0.86999999999999966</v>
+      </c>
+      <c r="E211" s="11">
+        <f t="shared" si="13"/>
+        <v>23</v>
+      </c>
+      <c r="F211" s="17">
+        <v>23.2</v>
+      </c>
+      <c r="I211" s="18">
+        <f t="shared" si="11"/>
+        <v>1093.1042944785272</v>
+      </c>
+      <c r="J211" s="11">
+        <v>1121</v>
+      </c>
+      <c r="K211" s="18">
+        <f t="shared" si="12"/>
+        <v>-27.895705521472792</v>
+      </c>
+      <c r="M211" s="20"/>
+      <c r="N211" s="22"/>
+      <c r="O211" s="23"/>
+      <c r="P211" s="22"/>
+      <c r="Q211" s="22"/>
+      <c r="R211" s="22"/>
+      <c r="S211" s="20"/>
+      <c r="T211" s="20"/>
+    </row>
+    <row r="212" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B212" s="9"/>
+      <c r="C212" s="18">
+        <f t="shared" si="9"/>
+        <v>967.46012269938603</v>
+      </c>
+      <c r="D212" s="9">
+        <f t="shared" si="10"/>
+        <v>0.76999999999999957</v>
+      </c>
+      <c r="E212" s="9">
+        <f t="shared" si="13"/>
+        <v>24</v>
+      </c>
+      <c r="F212" s="16">
+        <v>24.25</v>
+      </c>
+      <c r="I212" s="18">
+        <f t="shared" si="11"/>
+        <v>967.46012269938603</v>
+      </c>
+      <c r="J212" s="9">
+        <v>1001</v>
+      </c>
+      <c r="K212" s="18">
+        <f t="shared" si="12"/>
+        <v>-33.539877300613966</v>
+      </c>
+      <c r="M212" s="20"/>
+      <c r="N212" s="22"/>
+      <c r="O212" s="23"/>
+      <c r="P212" s="22"/>
+      <c r="Q212" s="22"/>
+      <c r="R212" s="22"/>
+      <c r="S212" s="20"/>
+      <c r="T212" s="20"/>
+    </row>
+    <row r="213" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B213" s="11"/>
+      <c r="C213" s="18">
+        <f t="shared" si="9"/>
+        <v>841.81595092024531</v>
+      </c>
+      <c r="D213" s="9">
+        <f t="shared" si="10"/>
+        <v>0.66999999999999993</v>
+      </c>
+      <c r="E213" s="11">
+        <f t="shared" si="13"/>
+        <v>25</v>
+      </c>
+      <c r="F213" s="17">
+        <v>25.4</v>
+      </c>
+      <c r="I213" s="18">
+        <f t="shared" si="11"/>
+        <v>841.81595092024531</v>
+      </c>
+      <c r="J213" s="11">
+        <v>883</v>
+      </c>
+      <c r="K213" s="18">
+        <f t="shared" si="12"/>
+        <v>-41.184049079754686</v>
+      </c>
+      <c r="M213" s="20"/>
+      <c r="N213" s="22"/>
+      <c r="O213" s="23"/>
+      <c r="P213" s="22"/>
+      <c r="Q213" s="22"/>
+      <c r="R213" s="22"/>
+      <c r="S213" s="20"/>
+      <c r="T213" s="20"/>
+    </row>
+    <row r="214" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B214" s="9"/>
+      <c r="C214" s="18">
+        <f t="shared" si="9"/>
+        <v>716.17177914110414</v>
+      </c>
+      <c r="D214" s="9">
+        <f t="shared" si="10"/>
+        <v>0.56999999999999984</v>
+      </c>
+      <c r="E214" s="9">
+        <f t="shared" si="13"/>
+        <v>26</v>
+      </c>
+      <c r="F214" s="16">
+        <v>26.4</v>
+      </c>
+      <c r="I214" s="18">
+        <f t="shared" si="11"/>
+        <v>716.17177914110414</v>
+      </c>
+      <c r="J214" s="9">
+        <v>766</v>
+      </c>
+      <c r="K214" s="18">
+        <f t="shared" si="12"/>
+        <v>-49.828220858895861</v>
+      </c>
+      <c r="M214" s="20"/>
+      <c r="N214" s="22"/>
+      <c r="O214" s="23"/>
+      <c r="P214" s="22"/>
+      <c r="Q214" s="22"/>
+      <c r="R214" s="22"/>
+      <c r="S214" s="20"/>
+      <c r="T214" s="20"/>
+    </row>
+    <row r="215" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B215" s="11"/>
+      <c r="C215" s="18">
+        <f t="shared" si="9"/>
+        <v>590.52760736196296</v>
+      </c>
+      <c r="D215" s="9">
+        <f t="shared" si="10"/>
+        <v>0.46999999999999975</v>
+      </c>
+      <c r="E215" s="11">
+        <f t="shared" si="13"/>
+        <v>27</v>
+      </c>
+      <c r="F215" s="17">
+        <v>27.45</v>
+      </c>
+      <c r="I215" s="18">
+        <f t="shared" si="11"/>
+        <v>590.52760736196296</v>
+      </c>
+      <c r="J215" s="11">
+        <v>647</v>
+      </c>
+      <c r="K215" s="18">
+        <f t="shared" si="12"/>
+        <v>-56.472392638037036</v>
+      </c>
+      <c r="M215" s="20"/>
+      <c r="N215" s="22"/>
+      <c r="O215" s="23"/>
+      <c r="P215" s="22"/>
+      <c r="Q215" s="22"/>
+      <c r="R215" s="22"/>
+      <c r="S215" s="20"/>
+      <c r="T215" s="20"/>
+    </row>
+    <row r="216" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B216" s="9"/>
+      <c r="C216" s="18">
+        <f t="shared" si="9"/>
+        <v>464.88343558282168</v>
+      </c>
+      <c r="D216" s="9">
+        <f t="shared" si="10"/>
+        <v>0.36999999999999966</v>
+      </c>
+      <c r="E216" s="9">
+        <f t="shared" si="13"/>
+        <v>28</v>
+      </c>
+      <c r="F216" s="16">
+        <v>28.5</v>
+      </c>
+      <c r="I216" s="18">
+        <f t="shared" si="11"/>
+        <v>464.88343558282168</v>
+      </c>
+      <c r="J216" s="9">
+        <v>529</v>
+      </c>
+      <c r="K216" s="18">
+        <f t="shared" si="12"/>
+        <v>-64.116564417178324</v>
+      </c>
+      <c r="M216" s="20"/>
+      <c r="N216" s="22"/>
+      <c r="O216" s="23"/>
+      <c r="P216" s="22"/>
+      <c r="Q216" s="22"/>
+      <c r="R216" s="22"/>
+      <c r="S216" s="20"/>
+      <c r="T216" s="20"/>
+    </row>
+    <row r="217" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B217" s="11"/>
+      <c r="C217" s="18">
+        <f t="shared" si="9"/>
+        <v>339.23926380368044</v>
+      </c>
+      <c r="D217" s="9">
+        <f t="shared" si="10"/>
+        <v>0.26999999999999957</v>
+      </c>
+      <c r="E217" s="11">
+        <f t="shared" si="13"/>
+        <v>29</v>
+      </c>
+      <c r="F217" s="17">
+        <v>29.5</v>
+      </c>
+      <c r="I217" s="18">
+        <f t="shared" si="11"/>
+        <v>339.23926380368044</v>
+      </c>
+      <c r="J217" s="11">
+        <v>408</v>
+      </c>
+      <c r="K217" s="18">
+        <f t="shared" si="12"/>
+        <v>-68.760736196319556</v>
+      </c>
+      <c r="M217" s="20"/>
+      <c r="N217" s="22"/>
+      <c r="O217" s="23"/>
+      <c r="P217" s="22"/>
+      <c r="Q217" s="22"/>
+      <c r="R217" s="22"/>
+      <c r="S217" s="20"/>
+      <c r="T217" s="20"/>
+    </row>
+    <row r="218" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B218" s="9"/>
+      <c r="C218" s="18">
+        <f t="shared" si="9"/>
+        <v>213.59509202453981</v>
+      </c>
+      <c r="D218" s="9">
+        <f t="shared" si="10"/>
+        <v>0.16999999999999993</v>
+      </c>
+      <c r="E218" s="9">
+        <f>E217+1</f>
         <v>30</v>
       </c>
-      <c r="E191" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B192">
-        <v>2561</v>
-      </c>
-      <c r="C192" s="21">
-        <f>B192*3.26/4096</f>
-        <v>2.0382958984374997</v>
-      </c>
-      <c r="D192" s="21">
-        <f>31.7-10*C192</f>
-        <v>11.317041015625001</v>
-      </c>
-      <c r="E192" s="21">
-        <f>D192-(0.0009*D192*D192-0.0799*D192+1.5091)</f>
-        <v>10.596904717159035</v>
-      </c>
-      <c r="F192" s="21"/>
-    </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B197">
-        <v>2632</v>
-      </c>
-      <c r="C197">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B198">
-        <v>2620</v>
-      </c>
-      <c r="C198">
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B199">
-        <v>2608</v>
-      </c>
-      <c r="C199">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B200">
-        <v>2596</v>
-      </c>
-      <c r="C200">
-        <v>10.3</v>
-      </c>
-    </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B201">
-        <v>2584</v>
-      </c>
-      <c r="C201">
-        <v>10.4</v>
-      </c>
-    </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B202">
-        <v>2572</v>
-      </c>
-      <c r="C202">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B203">
-        <v>2561</v>
-      </c>
-      <c r="C203">
-        <v>10.6</v>
-      </c>
+      <c r="F218" s="16">
+        <v>30.55</v>
+      </c>
+      <c r="I218" s="18">
+        <f t="shared" si="11"/>
+        <v>213.59509202453981</v>
+      </c>
+      <c r="J218" s="18">
+        <v>285</v>
+      </c>
+      <c r="K218" s="18">
+        <f t="shared" si="12"/>
+        <v>-71.404907975460191</v>
+      </c>
+      <c r="M218" s="20"/>
+      <c r="N218" s="22"/>
+      <c r="O218" s="23"/>
+      <c r="P218" s="22"/>
+      <c r="Q218" s="22"/>
+      <c r="R218" s="22"/>
+      <c r="S218" s="20"/>
+      <c r="T218" s="20"/>
+    </row>
+    <row r="219" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="M219" s="20"/>
+      <c r="N219" s="20"/>
+      <c r="O219" s="20"/>
+      <c r="P219" s="20"/>
+      <c r="Q219" s="20"/>
+      <c r="R219" s="20"/>
+      <c r="S219" s="20"/>
+      <c r="T219" s="20"/>
+    </row>
+    <row r="220" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="M220" s="20"/>
+      <c r="N220" s="20"/>
+      <c r="O220" s="20"/>
+      <c r="P220" s="20"/>
+      <c r="Q220" s="20"/>
+      <c r="R220" s="20"/>
+      <c r="S220" s="20"/>
+      <c r="T220" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
